--- a/ClientConfig/BeatConfig.xlsx
+++ b/ClientConfig/BeatConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>cs</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>鼓点类型</t>
+  </si>
+  <si>
+    <t>激活间隔</t>
   </si>
   <si>
     <t>鼓点资源</t>
@@ -112,6 +115,9 @@
     <t>BeatType</t>
   </si>
   <si>
+    <t>TriggerRange</t>
+  </si>
+  <si>
     <t>Prefab</t>
   </si>
   <si>
@@ -121,7 +127,13 @@
     <t>int</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>2200,1600</t>
   </si>
   <si>
     <t>DrumBeatBlue</t>
@@ -781,13 +793,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1390,195 +1408,219 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.73333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="61.2666666666667" customWidth="1"/>
     <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="47" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="47" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.5" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" ht="16.5" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="16.5" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1">
+    <row r="6" ht="16.5" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2">
         <v>101</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1">
+    <row r="7" ht="16.5" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2">
         <v>102</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
